--- a/data/0. old data/0. raw/2016/companies/msd.xlsx
+++ b/data/0. old data/0. raw/2016/companies/msd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="11740" windowWidth="28160" windowHeight="11240" activeTab="1"/>
+    <workbookView xWindow="5460" yWindow="8720" windowWidth="28160" windowHeight="11240"/>
   </bookViews>
   <sheets>
     <sheet name="msd" sheetId="1" r:id="rId1"/>
@@ -1227,16 +1227,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Netzikon ZH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>FMH Kardiologie Bahnhofstrasse 210</t>
     </r>
   </si>
@@ -4424,6 +4414,16 @@
   </si>
   <si>
     <t>Lucas, Martin Alexander</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wetzikon ZH</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5335,9 +5335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="2" spans="1:13" ht="26">
       <c r="A2" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -5404,7 +5404,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -5435,7 +5435,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>25</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>26</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="6" spans="1:13" ht="26">
       <c r="A6" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>32</v>
@@ -5530,7 +5530,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>33</v>
@@ -5552,16 +5552,16 @@
     </row>
     <row r="7" spans="1:13" ht="26">
       <c r="A7" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>34</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>35</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>38</v>
@@ -5623,7 +5623,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
@@ -5647,10 +5647,10 @@
     </row>
     <row r="10" spans="1:13" ht="26">
       <c r="A10" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>21</v>
@@ -5678,16 +5678,16 @@
     </row>
     <row r="11" spans="1:13" ht="26">
       <c r="A11" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>42</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>43</v>
@@ -5744,10 +5744,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>21</v>
@@ -5775,16 +5775,16 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>48</v>
@@ -5806,16 +5806,16 @@
     </row>
     <row r="15" spans="1:13" ht="26">
       <c r="A15" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>49</v>
@@ -5837,16 +5837,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>50</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="17" spans="1:13" ht="26">
       <c r="A17" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>51</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="18" spans="1:13" ht="26">
       <c r="A18" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>54</v>
@@ -5912,7 +5912,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>55</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>22</v>
@@ -5945,7 +5945,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>56</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>38</v>
@@ -6007,7 +6007,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>59</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="22" spans="1:13" ht="26">
       <c r="A22" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>60</v>
@@ -6042,7 +6042,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>61</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="23" spans="1:13" ht="26">
       <c r="A23" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>62</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>65</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="25" spans="1:13" ht="26">
       <c r="A25" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -6137,7 +6137,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>29</v>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>56</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="28" spans="1:13" ht="26">
       <c r="A28" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>72</v>
@@ -6230,7 +6230,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>73</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>74</v>
@@ -6261,7 +6261,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>75</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>76</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="31" spans="1:13" ht="26">
       <c r="A31" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>22</v>
@@ -6323,7 +6323,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>79</v>
@@ -6345,16 +6345,16 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>80</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>22</v>
@@ -6385,7 +6385,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>43</v>
@@ -6416,7 +6416,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>81</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>82</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>85</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>88</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>91</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="39" spans="1:13" ht="26">
       <c r="A39" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>24</v>
@@ -6573,7 +6573,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>94</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>95</v>
@@ -6628,16 +6628,16 @@
     </row>
     <row r="41" spans="1:13" ht="26">
       <c r="A41" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>98</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="42" spans="1:13" ht="26">
       <c r="A42" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>85</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="43" spans="1:13" ht="26">
       <c r="A43" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>22</v>
@@ -6699,7 +6699,7 @@
         <v>21</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>101</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="44" spans="1:13" ht="26">
       <c r="A44" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>102</v>
@@ -6730,7 +6730,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>103</v>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>104</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>95</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="47" spans="1:13" ht="26">
       <c r="A47" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>24</v>
@@ -6823,7 +6823,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>109</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>76</v>
@@ -6856,7 +6856,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>110</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>104</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="50" spans="1:13" ht="26">
       <c r="A50" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>51</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>38</v>
@@ -6949,7 +6949,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>115</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>116</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>119</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>122</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>29</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>127</v>
@@ -7128,10 +7128,10 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>21</v>
@@ -7159,16 +7159,16 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>132</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>38</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>22</v>
@@ -7232,7 +7232,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -7254,19 +7254,19 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
@@ -7285,19 +7285,19 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -7316,19 +7316,19 @@
     </row>
     <row r="63" spans="1:13" ht="26">
       <c r="A63" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -7347,19 +7347,19 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>43</v>
@@ -7387,10 +7387,10 @@
         <v>21</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
@@ -7411,19 +7411,19 @@
     </row>
     <row r="66" spans="1:13" ht="26">
       <c r="A66" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -7444,19 +7444,19 @@
     </row>
     <row r="67" spans="1:13" ht="26">
       <c r="A67" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -7475,19 +7475,19 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
@@ -7506,19 +7506,19 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -7537,19 +7537,19 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>51</v>
@@ -7579,10 +7579,10 @@
         <v>21</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
@@ -7603,19 +7603,19 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -7634,19 +7634,19 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
@@ -7667,19 +7667,19 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
@@ -7698,19 +7698,19 @@
     </row>
     <row r="75" spans="1:13" s="31" customFormat="1">
       <c r="A75" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>76</v>
@@ -7740,10 +7740,10 @@
         <v>21</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="77" spans="1:13" ht="26">
       <c r="A77" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>24</v>
@@ -7771,10 +7771,10 @@
         <v>21</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
@@ -7795,7 +7795,7 @@
     </row>
     <row r="78" spans="1:13" ht="26">
       <c r="A78" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>22</v>
@@ -7804,10 +7804,10 @@
         <v>21</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>43</v>
@@ -7837,10 +7837,10 @@
         <v>21</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -7859,19 +7859,19 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -7890,16 +7890,16 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
@@ -7919,19 +7919,19 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>29</v>
@@ -7961,10 +7961,10 @@
         <v>21</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>38</v>
@@ -7992,7 +7992,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>26</v>
@@ -8021,10 +8021,10 @@
         <v>21</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -8043,19 +8043,19 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
@@ -8076,19 +8076,19 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="88" spans="1:13" ht="26">
       <c r="A88" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>29</v>
@@ -8116,10 +8116,10 @@
         <v>21</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
@@ -8138,19 +8138,19 @@
     </row>
     <row r="89" spans="1:13" ht="26">
       <c r="A89" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
@@ -8171,7 +8171,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>22</v>
@@ -8180,10 +8180,10 @@
         <v>21</v>
       </c>
       <c r="D90" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
@@ -8202,19 +8202,19 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
@@ -8233,19 +8233,19 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D92" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
@@ -8264,7 +8264,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>22</v>
@@ -8273,10 +8273,10 @@
         <v>21</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
@@ -8297,19 +8297,19 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
@@ -8330,19 +8330,19 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
@@ -8363,19 +8363,19 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
@@ -8394,19 +8394,19 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
@@ -8425,19 +8425,19 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="99" spans="1:13" ht="26">
       <c r="A99" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>60</v>
@@ -8465,7 +8465,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>116</v>
@@ -8494,10 +8494,10 @@
         <v>21</v>
       </c>
       <c r="D100" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
@@ -8516,19 +8516,19 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
@@ -8551,19 +8551,19 @@
     </row>
     <row r="102" spans="1:13" ht="26">
       <c r="A102" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="103" spans="1:13" ht="26">
       <c r="A103" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>38</v>
@@ -8591,10 +8591,10 @@
         <v>21</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -8613,19 +8613,19 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -8646,19 +8646,19 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
@@ -8679,19 +8679,19 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>22</v>
@@ -8719,7 +8719,7 @@
         <v>21</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
@@ -8739,19 +8739,19 @@
     </row>
     <row r="108" spans="1:13" ht="26">
       <c r="A108" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>76</v>
@@ -8779,10 +8779,10 @@
         <v>21</v>
       </c>
       <c r="D109" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
@@ -8801,16 +8801,16 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
@@ -8830,16 +8830,16 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
@@ -8859,16 +8859,16 @@
     </row>
     <row r="112" spans="1:13" ht="26">
       <c r="A112" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="113" spans="1:13" ht="26">
       <c r="A113" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>51</v>
@@ -8897,7 +8897,7 @@
         <v>21</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
@@ -8917,16 +8917,16 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="C114" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="115" spans="1:13" ht="26">
       <c r="A115" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>51</v>
@@ -8955,7 +8955,7 @@
         <v>21</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>38</v>
@@ -8984,7 +8984,7 @@
         <v>21</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
@@ -9008,16 +9008,16 @@
     </row>
     <row r="117" spans="1:13" ht="26">
       <c r="A117" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="C117" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
@@ -9037,16 +9037,16 @@
     </row>
     <row r="118" spans="1:13" ht="26">
       <c r="A118" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="C118" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
@@ -9066,16 +9066,16 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="6">
@@ -9105,7 +9105,7 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>35</v>
@@ -9114,7 +9114,7 @@
         <v>21</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
@@ -9134,16 +9134,16 @@
     </row>
     <row r="121" spans="1:13" ht="26">
       <c r="A121" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="C121" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>54</v>
@@ -9172,7 +9172,7 @@
         <v>21</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
@@ -9194,16 +9194,16 @@
     </row>
     <row r="123" spans="1:13" ht="26">
       <c r="A123" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="C123" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -9223,16 +9223,16 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="6">
@@ -9254,16 +9254,16 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="C125" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>38</v>
@@ -9292,7 +9292,7 @@
         <v>21</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="6">
@@ -9312,16 +9312,16 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="C127" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="6">
@@ -9341,7 +9341,7 @@
     </row>
     <row r="128" spans="1:13" ht="26">
       <c r="A128" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>38</v>
@@ -9350,7 +9350,7 @@
         <v>21</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="6">
@@ -9372,16 +9372,16 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="C129" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
@@ -9401,16 +9401,16 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="C130" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
@@ -9430,7 +9430,7 @@
     </row>
     <row r="131" spans="1:13" ht="26">
       <c r="A131" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>22</v>
@@ -9439,7 +9439,7 @@
         <v>21</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
@@ -9459,16 +9459,16 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
@@ -9488,16 +9488,16 @@
     </row>
     <row r="133" spans="1:13" ht="26">
       <c r="A133" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="C133" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="134" spans="1:13" ht="26">
       <c r="A134" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>76</v>
@@ -9526,7 +9526,7 @@
         <v>21</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
@@ -9546,16 +9546,16 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="C135" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>60</v>
@@ -9584,7 +9584,7 @@
         <v>21</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="137" spans="1:13" ht="26">
       <c r="A137" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>24</v>
@@ -9613,7 +9613,7 @@
         <v>21</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
@@ -9637,16 +9637,16 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
@@ -9666,16 +9666,16 @@
     </row>
     <row r="139" spans="1:13" ht="26">
       <c r="A139" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
@@ -9697,16 +9697,16 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
@@ -9730,16 +9730,16 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
@@ -9759,16 +9759,16 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="6">
@@ -9790,16 +9790,16 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="6">
@@ -9819,16 +9819,16 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="6">
@@ -9848,7 +9848,7 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>43</v>
@@ -9857,7 +9857,7 @@
         <v>21</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>95</v>
@@ -9892,7 +9892,7 @@
         <v>21</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
@@ -9918,16 +9918,16 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
@@ -9947,16 +9947,16 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
@@ -9982,7 +9982,7 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>76</v>
@@ -9991,7 +9991,7 @@
         <v>21</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
@@ -10011,16 +10011,16 @@
     </row>
     <row r="150" spans="1:13" ht="26">
       <c r="A150" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
@@ -10040,7 +10040,7 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>22</v>
@@ -10049,7 +10049,7 @@
         <v>21</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
@@ -10069,16 +10069,16 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="C152" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>22</v>
@@ -10107,7 +10107,7 @@
         <v>21</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
@@ -10127,16 +10127,16 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
@@ -10156,16 +10156,16 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
@@ -10191,16 +10191,16 @@
     </row>
     <row r="156" spans="1:13" ht="26">
       <c r="A156" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
@@ -10220,16 +10220,16 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
@@ -10249,16 +10249,16 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
@@ -10284,16 +10284,16 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="C159" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
@@ -10313,16 +10313,16 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="C160" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
@@ -10342,7 +10342,7 @@
     </row>
     <row r="161" spans="1:13" ht="26">
       <c r="A161" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>29</v>
@@ -10351,7 +10351,7 @@
         <v>21</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
@@ -10373,16 +10373,16 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="C162" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
@@ -10402,16 +10402,16 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="C163" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
@@ -10431,16 +10431,16 @@
     </row>
     <row r="164" spans="1:13" ht="26">
       <c r="A164" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="C164" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
@@ -10460,7 +10460,7 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>22</v>
@@ -10469,7 +10469,7 @@
         <v>21</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
@@ -10491,16 +10491,16 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
@@ -10522,7 +10522,7 @@
     </row>
     <row r="167" spans="1:13" ht="26">
       <c r="A167" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>76</v>
@@ -10531,7 +10531,7 @@
         <v>21</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
@@ -10555,16 +10555,16 @@
     </row>
     <row r="168" spans="1:13" ht="26">
       <c r="A168" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="C168" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>336</v>
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
@@ -10586,7 +10586,7 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>22</v>
@@ -10595,7 +10595,7 @@
         <v>21</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="170" spans="1:13" ht="26">
       <c r="A170" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>29</v>
@@ -10624,7 +10624,7 @@
         <v>21</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
@@ -10644,7 +10644,7 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>43</v>
@@ -10653,7 +10653,7 @@
         <v>21</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="172" spans="1:13" ht="26">
       <c r="A172" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>29</v>
@@ -10682,7 +10682,7 @@
         <v>21</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
@@ -10702,7 +10702,7 @@
     </row>
     <row r="173" spans="1:13" ht="26">
       <c r="A173" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>22</v>
@@ -10711,7 +10711,7 @@
         <v>21</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
@@ -10733,16 +10733,16 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="C174" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
@@ -10762,16 +10762,16 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="C175" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
@@ -10791,7 +10791,7 @@
     </row>
     <row r="176" spans="1:13" ht="26">
       <c r="A176" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>29</v>
@@ -10800,7 +10800,7 @@
         <v>21</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="177" spans="1:13" ht="26">
       <c r="A177" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>38</v>
@@ -10831,7 +10831,7 @@
         <v>21</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
@@ -10851,16 +10851,16 @@
     </row>
     <row r="178" spans="1:13" ht="26">
       <c r="A178" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="C178" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
@@ -10880,16 +10880,16 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="C179" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
@@ -10909,7 +10909,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>26</v>
@@ -10918,7 +10918,7 @@
         <v>21</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
@@ -10938,16 +10938,16 @@
     </row>
     <row r="181" spans="1:13" ht="14">
       <c r="A181" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
@@ -10967,16 +10967,16 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
@@ -10996,7 +10996,7 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>22</v>
@@ -11005,7 +11005,7 @@
         <v>21</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
@@ -11029,16 +11029,16 @@
     </row>
     <row r="184" spans="1:13" ht="26">
       <c r="A184" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="C184" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="185" spans="1:13" ht="26">
       <c r="A185" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>22</v>
@@ -11067,7 +11067,7 @@
         <v>21</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
@@ -11091,7 +11091,7 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>38</v>
@@ -11100,7 +11100,7 @@
         <v>21</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
@@ -11120,16 +11120,16 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
@@ -11149,16 +11149,16 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="C188" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
@@ -11178,7 +11178,7 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>29</v>
@@ -11187,7 +11187,7 @@
         <v>21</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
@@ -11209,16 +11209,16 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B190" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="C190" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
@@ -11238,7 +11238,7 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>22</v>
@@ -11247,7 +11247,7 @@
         <v>21</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>22</v>
@@ -11276,7 +11276,7 @@
         <v>21</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
@@ -11302,7 +11302,7 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>76</v>
@@ -11311,7 +11311,7 @@
         <v>21</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
@@ -11344,8 +11344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -11378,7 +11378,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2">
         <v>2016</v>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B4" s="2">
         <v>2016</v>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B5" s="2">
         <v>2016</v>
@@ -11470,7 +11470,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B6" s="2">
         <v>2016</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B7" s="2">
         <v>2016</v>
@@ -11516,7 +11516,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B8" s="2">
         <v>2016</v>
@@ -11539,7 +11539,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B9" s="2">
         <v>2016</v>
@@ -11562,7 +11562,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B10" s="2">
         <v>2016</v>
@@ -11585,7 +11585,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B11" s="2">
         <v>2016</v>
